--- a/docs/詳細設計書/詳細設計書_分類情報画面_チュートリアル③.xlsx
+++ b/docs/詳細設計書/詳細設計書_分類情報画面_チュートリアル③.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kijima/Documents/development-SEcourse-DroneInventorySystem/docs/詳細設計書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kijima/Desktop/development-SEcourse-DroneInventorySystem/docs/詳細設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4B113E-86BF-624C-9D9C-7CC9F41EC404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157B5CDF-7C99-944B-B93F-89F5DAE9A1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
   </bookViews>
@@ -890,7 +890,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -997,6 +997,14 @@
       <name val="Meiryo"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1166,8 +1174,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1557,8 +1568,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{2C6021A8-2402-D149-BF96-3489F045483A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -12024,14 +12036,6 @@
     <mergeCell ref="P37:Z37"/>
     <mergeCell ref="AA37:AD37"/>
     <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="AF16:AL16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="AF17:AL17"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="AF18:AL18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="AF19:AL19"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="AF10:AL10"/>
     <mergeCell ref="A11:G11"/>
@@ -12044,20 +12048,24 @@
     <mergeCell ref="AF13:AL13"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="AF14:AL14"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="AF25:AL25"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="AF26:AL26"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="AF20:AL20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="AF21:AL21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="AF22:AL22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="AF23:AL23"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="AF24:AL24"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="AF16:AL16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="AF17:AL17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="AF18:AL18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="AF19:AL19"/>
+    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="AF66:AL66"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="AF67:AL67"/>
+    <mergeCell ref="A68:G68"/>
+    <mergeCell ref="AF68:AL68"/>
+    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="AF63:AL63"/>
     <mergeCell ref="A51:G51"/>
     <mergeCell ref="AF51:AL51"/>
     <mergeCell ref="A64:G64"/>
@@ -12074,18 +12082,22 @@
     <mergeCell ref="AF61:AL61"/>
     <mergeCell ref="A52:G52"/>
     <mergeCell ref="AF52:AL52"/>
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="AF65:AL65"/>
     <mergeCell ref="A53:G53"/>
     <mergeCell ref="AF53:AL53"/>
-    <mergeCell ref="A65:G65"/>
-    <mergeCell ref="AF65:AL65"/>
-    <mergeCell ref="A66:G66"/>
-    <mergeCell ref="AF66:AL66"/>
-    <mergeCell ref="A67:G67"/>
-    <mergeCell ref="AF67:AL67"/>
-    <mergeCell ref="A68:G68"/>
-    <mergeCell ref="AF68:AL68"/>
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="AF63:AL63"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="AF25:AL25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="AF26:AL26"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="AF20:AL20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="AF21:AL21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="AF22:AL22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="AF23:AL23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
